--- a/FrontEnd/AlgoFrontEnd.xlsx
+++ b/FrontEnd/AlgoFrontEnd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="C1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,261 +434,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ORSTED.CO</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>727.2000122070312</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AMBU-B.CO</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>71.19999694824219</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GN.CO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>201.6999969482422</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>FLS.CO</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>193.3000030517578</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>COLO-B.CO</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>832.4000244140625</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JYSK.CO</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>367.6000061035156</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NETC.CO</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PNDORA.CO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>434.3999938964844</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TRYG.CO</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>165.8999938964844</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DSV.CO</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MAERSK-A.CO</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17120</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DANSKE.CO</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>97.72000122070312</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NOVO-B.CO</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NZYM-B.CO</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>414.2999877929688</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>VWS.CO</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>176.7400054931641</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BAVA.CO</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>258.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CARL-B.CO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>948.5999755859375</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MAERSK-B.CO</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>17360</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>DEMANT.CO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RBREW.CO</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>538.7999877929688</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ISS.CO</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>128.8999938964844</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CHR.CO</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>424.1000061035156</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NDA-DK.CO</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GMAB.CO</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ROCK-B.CO</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1454</v>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
